--- a/Stocks/GSKCONS.xlsx
+++ b/Stocks/GSKCONS.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="35">
   <si>
     <t>Scrip</t>
   </si>
@@ -601,7 +601,7 @@
         <v>5165.9833333333336</v>
       </c>
       <c r="H2" t="e">
-        <f t="array" ref="H2:H82">_xll.TA_EMA(G2:G82,3)</f>
+        <f t="array" ref="H2:H104">_xll.TA_EMA(G2:G104,3)</f>
         <v>#N/A</v>
       </c>
       <c r="I2" t="e">
@@ -609,11 +609,11 @@
         <v>#N/A</v>
       </c>
       <c r="J2" t="e">
-        <f t="array" ref="J2:J82">_xll.TA_EMA(D2:D82,8)</f>
+        <f t="array" ref="J2:J104">_xll.TA_EMA(D2:D104,8)</f>
         <v>#N/A</v>
       </c>
       <c r="K2" t="e">
-        <f t="array" ref="K2:K82">_xll.TA_EMA(E2:E82,8)</f>
+        <f t="array" ref="K2:K104">_xll.TA_EMA(E2:E104,8)</f>
         <v>#N/A</v>
       </c>
       <c r="L2" t="e">
@@ -625,7 +625,7 @@
         <v>#N/A</v>
       </c>
       <c r="N2" t="e">
-        <f t="array" ref="N2:N82">_xll.TA_RSI(F2:F82,5)</f>
+        <f t="array" ref="N2:N104">_xll.TA_RSI(F2:F104,5)</f>
         <v>#N/A</v>
       </c>
       <c r="O2" t="e">
@@ -657,11 +657,11 @@
         <v>#N/A</v>
       </c>
       <c r="V2" t="e">
-        <f t="array" ref="V2:V82">_xll.TA_EMA(F2:F82,12)</f>
+        <f t="array" ref="V2:V104">_xll.TA_EMA(F2:F104,12)</f>
         <v>#N/A</v>
       </c>
       <c r="W2" t="e">
-        <f t="array" ref="W2:W82">_xll.TA_EMA(F2:F82,26)</f>
+        <f t="array" ref="W2:W104">_xll.TA_EMA(F2:F104,26)</f>
         <v>#N/A</v>
       </c>
       <c r="X2" t="e">
@@ -669,7 +669,7 @@
         <v>#N/A</v>
       </c>
       <c r="Y2" t="e">
-        <f t="array" ref="Y2:Y82">_xll.TA_EMA(X2:X82,9)</f>
+        <f t="array" ref="Y2:Y104">_xll.TA_EMA(X2:X104,9)</f>
         <v>#N/A</v>
       </c>
       <c r="Z2" t="e">
@@ -8696,7 +8696,7 @@
         <v>5456.9297844996945</v>
       </c>
       <c r="I67" t="str">
-        <f t="shared" ref="I67:I82" si="20">IF(F67&gt;H67,"UP","DOWN")</f>
+        <f t="shared" ref="I67:I104" si="20">IF(F67&gt;H67,"UP","DOWN")</f>
         <v>DOWN</v>
       </c>
       <c r="J67">
@@ -8706,42 +8706,42 @@
         <v>5435.7045593305556</v>
       </c>
       <c r="L67" t="str">
-        <f t="shared" ref="L67:L82" si="21">IF(F67&gt;J67,"UP",IF(F67&lt;K67,"DOWN","No Confirmation"))</f>
+        <f t="shared" ref="L67:L104" si="21">IF(F67&gt;J67,"UP",IF(F67&lt;K67,"DOWN","No Confirmation"))</f>
         <v>No Confirmation</v>
       </c>
       <c r="M67" t="str">
-        <f t="shared" ref="M67:M82" si="22">IF(AND(I67="UP",L67="UP"),"UP",IF(AND(I67="DOWN",L67="DOWN"),"DOWN","No Trend"))</f>
+        <f t="shared" ref="M67:M104" si="22">IF(AND(I67="UP",L67="UP"),"UP",IF(AND(I67="DOWN",L67="DOWN"),"DOWN","No Trend"))</f>
         <v>No Trend</v>
       </c>
       <c r="N67">
         <v>36.733116004249986</v>
       </c>
       <c r="O67" t="str">
-        <f t="shared" ref="O67:O82" si="23">IF(N67&gt;60,"UP",IF(N67&lt;40,"DOWN","No Momentum"))</f>
+        <f t="shared" ref="O67:O104" si="23">IF(N67&gt;60,"UP",IF(N67&lt;40,"DOWN","No Momentum"))</f>
         <v>DOWN</v>
       </c>
       <c r="P67" t="str">
-        <f t="shared" ref="P67:P82" si="24">IF(AND(M67="UP",O67="UP"),"UP",IF(AND(M67="DOWN",O67="DOWN"),"DOWN","No Trend + Momentum"))</f>
+        <f t="shared" ref="P67:P104" si="24">IF(AND(M67="UP",O67="UP"),"UP",IF(AND(M67="DOWN",O67="DOWN"),"DOWN","No Trend + Momentum"))</f>
         <v>No Trend + Momentum</v>
       </c>
       <c r="Q67">
-        <f t="shared" ref="Q67:Q82" si="25">F67-E67</f>
+        <f t="shared" ref="Q67:Q104" si="25">F67-E67</f>
         <v>79</v>
       </c>
       <c r="R67">
-        <f t="shared" ref="R67:R82" si="26">D67-E67</f>
+        <f t="shared" ref="R67:R104" si="26">D67-E67</f>
         <v>87</v>
       </c>
       <c r="S67">
-        <f t="shared" ref="S67:S82" si="27">Q67/R67</f>
+        <f t="shared" ref="S67:S104" si="27">Q67/R67</f>
         <v>0.90804597701149425</v>
       </c>
       <c r="T67" t="str">
-        <f t="shared" ref="T67:T82" si="28">IF(S67&gt;0.8,"UP",IF(S67&lt;0.2,"DOWN","No Indication"))</f>
+        <f t="shared" ref="T67:T104" si="28">IF(S67&gt;0.8,"UP",IF(S67&lt;0.2,"DOWN","No Indication"))</f>
         <v>UP</v>
       </c>
       <c r="U67" t="str">
-        <f t="shared" ref="U67:U82" si="29">IF(AND(P67="UP",T67="UP"),"UP",IF(AND(P67="DOWN",T67="DOWN"),"DOWN","No T+M+I"))</f>
+        <f t="shared" ref="U67:U104" si="29">IF(AND(P67="UP",T67="UP"),"UP",IF(AND(P67="DOWN",T67="DOWN"),"DOWN","No T+M+I"))</f>
         <v>No T+M+I</v>
       </c>
       <c r="V67">
@@ -8751,42 +8751,42 @@
         <v>5460.6504024043579</v>
       </c>
       <c r="X67">
-        <f t="shared" ref="X67:X82" si="30">V67-W67</f>
+        <f t="shared" ref="X67:X104" si="30">V67-W67</f>
         <v>22.324315632991784</v>
       </c>
       <c r="Y67">
         <v>31.959161093463273</v>
       </c>
       <c r="Z67" t="str">
-        <f t="shared" ref="Z67:Z82" si="31">IF(X67&gt;Y67,"UP",IF(X67&lt;Y67,"DOWN","No Indication"))</f>
+        <f t="shared" ref="Z67:Z104" si="31">IF(X67&gt;Y67,"UP",IF(X67&lt;Y67,"DOWN","No Indication"))</f>
         <v>DOWN</v>
       </c>
       <c r="AA67" t="str">
-        <f t="shared" ref="AA67:AA82" si="32">IF(AND(U67="UP",Z67="UP"),"UP",IF(AND(U67="DOWN",Z67="DOWN"),"DOWN","No TMIM"))</f>
+        <f t="shared" ref="AA67:AA104" si="32">IF(AND(U67="UP",Z67="UP"),"UP",IF(AND(U67="DOWN",Z67="DOWN"),"DOWN","No TMIM"))</f>
         <v>No TMIM</v>
       </c>
       <c r="AB67" t="str">
-        <f t="shared" ref="AB67:AB82" si="33">IF(H67&gt;J67,"UP",IF(H67&lt;K67,"DOWN","No Confirmation"))</f>
+        <f t="shared" ref="AB67:AB104" si="33">IF(H67&gt;J67,"UP",IF(H67&lt;K67,"DOWN","No Confirmation"))</f>
         <v>No Confirmation</v>
       </c>
       <c r="AC67" t="str">
-        <f t="shared" ref="AC67:AC82" si="34">IF(AND(AA67="UP",AB67="UP"),"UP",IF(AND(AA67="DOWN",AB67="DOWN"),"DOWN","No Alert"))</f>
+        <f t="shared" ref="AC67:AC104" si="34">IF(AND(AA67="UP",AB67="UP"),"UP",IF(AND(AA67="DOWN",AB67="DOWN"),"DOWN","No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AD67" t="str">
-        <f t="shared" ref="AD67:AD82" si="35">IF(AC67="UP",MROUND(D67-((D67-E67)*0.886),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.886),0.05),"No Alert"))</f>
+        <f t="shared" ref="AD67:AD104" si="35">IF(AC67="UP",MROUND(D67-((D67-E67)*0.886),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.886),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AE67" t="str">
-        <f t="shared" ref="AE67:AE82" si="36">IF(AC67="UP",MROUND(D67-((D67-E67)*0.618),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.618),0.05),"No Alert"))</f>
+        <f t="shared" ref="AE67:AE104" si="36">IF(AC67="UP",MROUND(D67-((D67-E67)*0.618),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.618),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AF67" t="str">
-        <f t="shared" ref="AF67:AF82" si="37">IF(AC67="UP",MROUND(D67-((D67-E67)*0.5),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.5),0.05),"No Alert"))</f>
+        <f t="shared" ref="AF67:AF104" si="37">IF(AC67="UP",MROUND(D67-((D67-E67)*0.5),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.5),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AG67" t="str">
-        <f t="shared" ref="AG67:AG82" si="38">IF(AC67="UP",MROUND(D67-((D67-E67)*0.382),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.382),0.05),"No Alert"))</f>
+        <f t="shared" ref="AG67:AG104" si="38">IF(AC67="UP",MROUND(D67-((D67-E67)*0.382),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.382),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
     </row>
@@ -10606,93 +10606,2689 @@
       </c>
     </row>
     <row r="83" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B83" s="1"/>
+      <c r="A83" t="s">
+        <v>5</v>
+      </c>
+      <c r="B83" s="1">
+        <v>42975</v>
+      </c>
+      <c r="C83">
+        <v>5252.05</v>
+      </c>
+      <c r="D83">
+        <v>5400</v>
+      </c>
+      <c r="E83">
+        <v>5252.05</v>
+      </c>
+      <c r="F83">
+        <v>5349.75</v>
+      </c>
+      <c r="G83">
+        <f>_xll.TA_TYPPRICE(D83,E83,F83)</f>
+        <v>5333.9333333333334</v>
+      </c>
+      <c r="H83">
+        <v>5335.1173588529127</v>
+      </c>
+      <c r="I83" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J83">
+        <v>5406.6666757688399</v>
+      </c>
+      <c r="K83">
+        <v>5298.5291247272844</v>
+      </c>
+      <c r="L83" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M83" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N83">
+        <v>49.820479878418865</v>
+      </c>
+      <c r="O83" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P83" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q83">
+        <f t="shared" si="25"/>
+        <v>97.699999999999818</v>
+      </c>
+      <c r="R83">
+        <f t="shared" si="26"/>
+        <v>147.94999999999982</v>
+      </c>
+      <c r="S83">
+        <f t="shared" si="27"/>
+        <v>0.66035822913146291</v>
+      </c>
+      <c r="T83" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U83" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V83">
+        <v>5360.9304800459386</v>
+      </c>
+      <c r="W83">
+        <v>5392.6957451990047</v>
+      </c>
+      <c r="X83">
+        <f t="shared" si="30"/>
+        <v>-31.765265153066139</v>
+      </c>
+      <c r="Y83">
+        <v>-23.523619067299972</v>
+      </c>
+      <c r="Z83" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA83" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB83" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC83" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD83" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE83" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF83" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG83" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="84" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B84" s="1"/>
+      <c r="A84" t="s">
+        <v>5</v>
+      </c>
+      <c r="B84" s="1">
+        <v>42976</v>
+      </c>
+      <c r="C84">
+        <v>5305.5</v>
+      </c>
+      <c r="D84">
+        <v>5394.85</v>
+      </c>
+      <c r="E84">
+        <v>5305.5</v>
+      </c>
+      <c r="F84">
+        <v>5340</v>
+      </c>
+      <c r="G84">
+        <f>_xll.TA_TYPPRICE(D84,E84,F84)</f>
+        <v>5346.7833333333338</v>
+      </c>
+      <c r="H84">
+        <v>5340.9503460931228</v>
+      </c>
+      <c r="I84" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J84">
+        <v>5404.0407478202087</v>
+      </c>
+      <c r="K84">
+        <v>5300.078208121221</v>
+      </c>
+      <c r="L84" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M84" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N84">
+        <v>47.160956789751573</v>
+      </c>
+      <c r="O84" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P84" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q84">
+        <f t="shared" si="25"/>
+        <v>34.5</v>
+      </c>
+      <c r="R84">
+        <f t="shared" si="26"/>
+        <v>89.350000000000364</v>
+      </c>
+      <c r="S84">
+        <f t="shared" si="27"/>
+        <v>0.38612199216563919</v>
+      </c>
+      <c r="T84" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U84" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V84">
+        <v>5357.7104061927175</v>
+      </c>
+      <c r="W84">
+        <v>5388.7923566657455</v>
+      </c>
+      <c r="X84">
+        <f t="shared" si="30"/>
+        <v>-31.081950473027973</v>
+      </c>
+      <c r="Y84">
+        <v>-25.035285348445573</v>
+      </c>
+      <c r="Z84" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA84" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB84" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC84" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD84" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE84" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF84" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG84" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="85" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B85" s="1"/>
+      <c r="A85" t="s">
+        <v>5</v>
+      </c>
+      <c r="B85" s="1">
+        <v>42977</v>
+      </c>
+      <c r="C85">
+        <v>5387.45</v>
+      </c>
+      <c r="D85">
+        <v>5450</v>
+      </c>
+      <c r="E85">
+        <v>5318</v>
+      </c>
+      <c r="F85">
+        <v>5415.7</v>
+      </c>
+      <c r="G85">
+        <f>_xll.TA_TYPPRICE(D85,E85,F85)</f>
+        <v>5394.5666666666666</v>
+      </c>
+      <c r="H85">
+        <v>5367.7585063798942</v>
+      </c>
+      <c r="I85" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J85">
+        <v>5414.2539149712738</v>
+      </c>
+      <c r="K85">
+        <v>5304.060828538727</v>
+      </c>
+      <c r="L85" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M85" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N85">
+        <v>65.193513907052264</v>
+      </c>
+      <c r="O85" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P85" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q85">
+        <f t="shared" si="25"/>
+        <v>97.699999999999818</v>
+      </c>
+      <c r="R85">
+        <f t="shared" si="26"/>
+        <v>132</v>
+      </c>
+      <c r="S85">
+        <f t="shared" si="27"/>
+        <v>0.74015151515151378</v>
+      </c>
+      <c r="T85" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U85" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V85">
+        <v>5366.6318821630684</v>
+      </c>
+      <c r="W85">
+        <v>5390.7855154312456</v>
+      </c>
+      <c r="X85">
+        <f t="shared" si="30"/>
+        <v>-24.153633268177146</v>
+      </c>
+      <c r="Y85">
+        <v>-24.858954932391889</v>
+      </c>
+      <c r="Z85" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA85" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB85" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC85" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD85" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE85" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF85" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG85" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="86" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B86" s="1"/>
+      <c r="A86" t="s">
+        <v>5</v>
+      </c>
+      <c r="B86" s="1">
+        <v>42978</v>
+      </c>
+      <c r="C86">
+        <v>5387.7</v>
+      </c>
+      <c r="D86">
+        <v>5418</v>
+      </c>
+      <c r="E86">
+        <v>5340.05</v>
+      </c>
+      <c r="F86">
+        <v>5351</v>
+      </c>
+      <c r="G86">
+        <f>_xll.TA_TYPPRICE(D86,E86,F86)</f>
+        <v>5369.6833333333334</v>
+      </c>
+      <c r="H86">
+        <v>5368.7209198566143</v>
+      </c>
+      <c r="I86" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J86">
+        <v>5415.0863783109908</v>
+      </c>
+      <c r="K86">
+        <v>5312.0584221967874</v>
+      </c>
+      <c r="L86" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M86" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N86">
+        <v>47.774694860815202</v>
+      </c>
+      <c r="O86" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P86" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q86">
+        <f t="shared" si="25"/>
+        <v>10.949999999999818</v>
+      </c>
+      <c r="R86">
+        <f t="shared" si="26"/>
+        <v>77.949999999999818</v>
+      </c>
+      <c r="S86">
+        <f t="shared" si="27"/>
+        <v>0.14047466324566829</v>
+      </c>
+      <c r="T86" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U86" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V86">
+        <v>5364.2269772149039</v>
+      </c>
+      <c r="W86">
+        <v>5387.8384402141164</v>
+      </c>
+      <c r="X86">
+        <f t="shared" si="30"/>
+        <v>-23.611462999212563</v>
+      </c>
+      <c r="Y86">
+        <v>-24.609456545756025</v>
+      </c>
+      <c r="Z86" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA86" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB86" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC86" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD86" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE86" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF86" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG86" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="87" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B87" s="1"/>
+      <c r="A87" t="s">
+        <v>5</v>
+      </c>
+      <c r="B87" s="1">
+        <v>42979</v>
+      </c>
+      <c r="C87">
+        <v>5322</v>
+      </c>
+      <c r="D87">
+        <v>5399.95</v>
+      </c>
+      <c r="E87">
+        <v>5315.1</v>
+      </c>
+      <c r="F87">
+        <v>5339</v>
+      </c>
+      <c r="G87">
+        <f>_xll.TA_TYPPRICE(D87,E87,F87)</f>
+        <v>5351.3499999999995</v>
+      </c>
+      <c r="H87">
+        <v>5360.0354599283073</v>
+      </c>
+      <c r="I87" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J87">
+        <v>5411.722738686326</v>
+      </c>
+      <c r="K87">
+        <v>5312.7343283752789</v>
+      </c>
+      <c r="L87" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M87" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N87">
+        <v>44.987948242564258</v>
+      </c>
+      <c r="O87" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P87" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q87">
+        <f t="shared" si="25"/>
+        <v>23.899999999999636</v>
+      </c>
+      <c r="R87">
+        <f t="shared" si="26"/>
+        <v>84.849999999999454</v>
+      </c>
+      <c r="S87">
+        <f t="shared" si="27"/>
+        <v>0.28167354154389851</v>
+      </c>
+      <c r="T87" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U87" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V87">
+        <v>5360.3459037972261</v>
+      </c>
+      <c r="W87">
+        <v>5384.2207779760338</v>
+      </c>
+      <c r="X87">
+        <f t="shared" si="30"/>
+        <v>-23.874874178807659</v>
+      </c>
+      <c r="Y87">
+        <v>-24.462540072366352</v>
+      </c>
+      <c r="Z87" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA87" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB87" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC87" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD87" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE87" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF87" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG87" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="88" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B88" s="1"/>
+      <c r="A88" t="s">
+        <v>5</v>
+      </c>
+      <c r="B88" s="1">
+        <v>42982</v>
+      </c>
+      <c r="C88">
+        <v>5310</v>
+      </c>
+      <c r="D88">
+        <v>5367</v>
+      </c>
+      <c r="E88">
+        <v>5310</v>
+      </c>
+      <c r="F88">
+        <v>5327.75</v>
+      </c>
+      <c r="G88">
+        <f>_xll.TA_TYPPRICE(D88,E88,F88)</f>
+        <v>5334.916666666667</v>
+      </c>
+      <c r="H88">
+        <v>5347.4760632974867</v>
+      </c>
+      <c r="I88" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J88">
+        <v>5401.7843523115871</v>
+      </c>
+      <c r="K88">
+        <v>5312.1266998474393</v>
+      </c>
+      <c r="L88" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M88" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N88">
+        <v>42.109484426991507</v>
+      </c>
+      <c r="O88" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P88" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q88">
+        <f t="shared" si="25"/>
+        <v>17.75</v>
+      </c>
+      <c r="R88">
+        <f t="shared" si="26"/>
+        <v>57</v>
+      </c>
+      <c r="S88">
+        <f t="shared" si="27"/>
+        <v>0.31140350877192985</v>
+      </c>
+      <c r="T88" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U88" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V88">
+        <v>5355.3311493668834</v>
+      </c>
+      <c r="W88">
+        <v>5380.0377573852165</v>
+      </c>
+      <c r="X88">
+        <f t="shared" si="30"/>
+        <v>-24.7066080183331</v>
+      </c>
+      <c r="Y88">
+        <v>-24.511353661559703</v>
+      </c>
+      <c r="Z88" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA88" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB88" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC88" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD88" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE88" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF88" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG88" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="89" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B89" s="1"/>
+      <c r="A89" t="s">
+        <v>5</v>
+      </c>
+      <c r="B89" s="1">
+        <v>42983</v>
+      </c>
+      <c r="C89">
+        <v>5301.3</v>
+      </c>
+      <c r="D89">
+        <v>5373.95</v>
+      </c>
+      <c r="E89">
+        <v>5301.3</v>
+      </c>
+      <c r="F89">
+        <v>5335</v>
+      </c>
+      <c r="G89">
+        <f>_xll.TA_TYPPRICE(D89,E89,F89)</f>
+        <v>5336.75</v>
+      </c>
+      <c r="H89">
+        <v>5342.1130316487433</v>
+      </c>
+      <c r="I89" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J89">
+        <v>5395.5989406867902</v>
+      </c>
+      <c r="K89">
+        <v>5309.7207665480082</v>
+      </c>
+      <c r="L89" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M89" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N89">
+        <v>44.947017527597765</v>
+      </c>
+      <c r="O89" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P89" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q89">
+        <f t="shared" si="25"/>
+        <v>33.699999999999818</v>
+      </c>
+      <c r="R89">
+        <f t="shared" si="26"/>
+        <v>72.649999999999636</v>
+      </c>
+      <c r="S89">
+        <f t="shared" si="27"/>
+        <v>0.46386785960082572</v>
+      </c>
+      <c r="T89" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U89" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V89">
+        <v>5352.203280233517</v>
+      </c>
+      <c r="W89">
+        <v>5376.7016272085339</v>
+      </c>
+      <c r="X89">
+        <f t="shared" si="30"/>
+        <v>-24.49834697501683</v>
+      </c>
+      <c r="Y89">
+        <v>-24.508752324251127</v>
+      </c>
+      <c r="Z89" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA89" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB89" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC89" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD89" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE89" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF89" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG89" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="90" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B90" s="1"/>
+      <c r="A90" t="s">
+        <v>5</v>
+      </c>
+      <c r="B90" s="1">
+        <v>42984</v>
+      </c>
+      <c r="C90">
+        <v>5300.3</v>
+      </c>
+      <c r="D90">
+        <v>5323.85</v>
+      </c>
+      <c r="E90">
+        <v>5201</v>
+      </c>
+      <c r="F90">
+        <v>5219.95</v>
+      </c>
+      <c r="G90">
+        <f>_xll.TA_TYPPRICE(D90,E90,F90)</f>
+        <v>5248.2666666666664</v>
+      </c>
+      <c r="H90">
+        <v>5295.1898491577049</v>
+      </c>
+      <c r="I90" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J90">
+        <v>5379.6547316452816</v>
+      </c>
+      <c r="K90">
+        <v>5285.5605962040063</v>
+      </c>
+      <c r="L90" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M90" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N90">
+        <v>22.789348829882503</v>
+      </c>
+      <c r="O90" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P90" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q90">
+        <f t="shared" si="25"/>
+        <v>18.949999999999818</v>
+      </c>
+      <c r="R90">
+        <f t="shared" si="26"/>
+        <v>122.85000000000036</v>
+      </c>
+      <c r="S90">
+        <f t="shared" si="27"/>
+        <v>0.15425315425315231</v>
+      </c>
+      <c r="T90" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U90" t="str">
+        <f t="shared" si="29"/>
+        <v>DOWN</v>
+      </c>
+      <c r="V90">
+        <v>5331.8566217360531</v>
+      </c>
+      <c r="W90">
+        <v>5365.0903955634576</v>
+      </c>
+      <c r="X90">
+        <f t="shared" si="30"/>
+        <v>-33.233773827404548</v>
+      </c>
+      <c r="Y90">
+        <v>-26.25375662488181</v>
+      </c>
+      <c r="Z90" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA90" t="str">
+        <f t="shared" si="32"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AB90" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC90" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD90" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE90" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF90" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG90" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="91" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B91" s="1"/>
+      <c r="A91" t="s">
+        <v>5</v>
+      </c>
+      <c r="B91" s="1">
+        <v>42985</v>
+      </c>
+      <c r="C91">
+        <v>5250.05</v>
+      </c>
+      <c r="D91">
+        <v>5267.85</v>
+      </c>
+      <c r="E91">
+        <v>5210</v>
+      </c>
+      <c r="F91">
+        <v>5210</v>
+      </c>
+      <c r="G91">
+        <f>_xll.TA_TYPPRICE(D91,E91,F91)</f>
+        <v>5229.2833333333338</v>
+      </c>
+      <c r="H91">
+        <v>5262.2365912455189</v>
+      </c>
+      <c r="I91" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J91">
+        <v>5354.8092357241076</v>
+      </c>
+      <c r="K91">
+        <v>5268.7693526031162</v>
+      </c>
+      <c r="L91" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M91" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N91">
+        <v>21.636287519855035</v>
+      </c>
+      <c r="O91" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P91" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q91">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="R91">
+        <f t="shared" si="26"/>
+        <v>57.850000000000364</v>
+      </c>
+      <c r="S91">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="T91" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U91" t="str">
+        <f t="shared" si="29"/>
+        <v>DOWN</v>
+      </c>
+      <c r="V91">
+        <v>5313.1094491612757</v>
+      </c>
+      <c r="W91">
+        <v>5353.6022181143126</v>
+      </c>
+      <c r="X91">
+        <f t="shared" si="30"/>
+        <v>-40.49276895303683</v>
+      </c>
+      <c r="Y91">
+        <v>-29.101559090512815</v>
+      </c>
+      <c r="Z91" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA91" t="str">
+        <f t="shared" si="32"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AB91" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC91" t="str">
+        <f t="shared" si="34"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AD91">
+        <f t="shared" si="35"/>
+        <v>5261.25</v>
+      </c>
+      <c r="AE91">
+        <f t="shared" si="36"/>
+        <v>5245.75</v>
+      </c>
+      <c r="AF91">
+        <f t="shared" si="37"/>
+        <v>5238.9500000000007</v>
+      </c>
+      <c r="AG91">
+        <f t="shared" si="38"/>
+        <v>5232.1000000000004</v>
+      </c>
     </row>
     <row r="92" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B92" s="1"/>
+      <c r="A92" t="s">
+        <v>5</v>
+      </c>
+      <c r="B92" s="1">
+        <v>42986</v>
+      </c>
+      <c r="C92">
+        <v>5212</v>
+      </c>
+      <c r="D92">
+        <v>5246.9</v>
+      </c>
+      <c r="E92">
+        <v>5165</v>
+      </c>
+      <c r="F92">
+        <v>5170</v>
+      </c>
+      <c r="G92">
+        <f>_xll.TA_TYPPRICE(D92,E92,F92)</f>
+        <v>5193.9666666666662</v>
+      </c>
+      <c r="H92">
+        <v>5228.1016289560921</v>
+      </c>
+      <c r="I92" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J92">
+        <v>5330.829405563195</v>
+      </c>
+      <c r="K92">
+        <v>5245.7094964690905</v>
+      </c>
+      <c r="L92" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M92" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N92">
+        <v>17.250326826823979</v>
+      </c>
+      <c r="O92" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P92" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q92">
+        <f t="shared" si="25"/>
+        <v>5</v>
+      </c>
+      <c r="R92">
+        <f t="shared" si="26"/>
+        <v>81.899999999999636</v>
+      </c>
+      <c r="S92">
+        <f t="shared" si="27"/>
+        <v>6.1050061050061319E-2</v>
+      </c>
+      <c r="T92" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U92" t="str">
+        <f t="shared" si="29"/>
+        <v>DOWN</v>
+      </c>
+      <c r="V92">
+        <v>5291.0926108287722</v>
+      </c>
+      <c r="W92">
+        <v>5340.0020538095487</v>
+      </c>
+      <c r="X92">
+        <f t="shared" si="30"/>
+        <v>-48.909442980776475</v>
+      </c>
+      <c r="Y92">
+        <v>-33.063135868565546</v>
+      </c>
+      <c r="Z92" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA92" t="str">
+        <f t="shared" si="32"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AB92" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC92" t="str">
+        <f t="shared" si="34"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AD92">
+        <f t="shared" si="35"/>
+        <v>5237.55</v>
+      </c>
+      <c r="AE92">
+        <f t="shared" si="36"/>
+        <v>5215.6000000000004</v>
+      </c>
+      <c r="AF92">
+        <f t="shared" si="37"/>
+        <v>5205.9500000000007</v>
+      </c>
+      <c r="AG92">
+        <f t="shared" si="38"/>
+        <v>5196.3</v>
+      </c>
     </row>
     <row r="93" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B93" s="1"/>
+      <c r="A93" t="s">
+        <v>5</v>
+      </c>
+      <c r="B93" s="1">
+        <v>42989</v>
+      </c>
+      <c r="C93">
+        <v>5130.1499999999996</v>
+      </c>
+      <c r="D93">
+        <v>5186.95</v>
+      </c>
+      <c r="E93">
+        <v>5085</v>
+      </c>
+      <c r="F93">
+        <v>5086.5</v>
+      </c>
+      <c r="G93">
+        <f>_xll.TA_TYPPRICE(D93,E93,F93)</f>
+        <v>5119.4833333333336</v>
+      </c>
+      <c r="H93">
+        <v>5173.7924811447128</v>
+      </c>
+      <c r="I93" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J93">
+        <v>5298.8562043269294</v>
+      </c>
+      <c r="K93">
+        <v>5209.9962750315144</v>
+      </c>
+      <c r="L93" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M93" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N93">
+        <v>11.282431531643939</v>
+      </c>
+      <c r="O93" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P93" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q93">
+        <f t="shared" si="25"/>
+        <v>1.5</v>
+      </c>
+      <c r="R93">
+        <f t="shared" si="26"/>
+        <v>101.94999999999982</v>
+      </c>
+      <c r="S93">
+        <f t="shared" si="27"/>
+        <v>1.4713094654242302E-2</v>
+      </c>
+      <c r="T93" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U93" t="str">
+        <f t="shared" si="29"/>
+        <v>DOWN</v>
+      </c>
+      <c r="V93">
+        <v>5259.6168245474228</v>
+      </c>
+      <c r="W93">
+        <v>5321.2241238977304</v>
+      </c>
+      <c r="X93">
+        <f t="shared" si="30"/>
+        <v>-61.607299350307585</v>
+      </c>
+      <c r="Y93">
+        <v>-38.771968564913955</v>
+      </c>
+      <c r="Z93" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA93" t="str">
+        <f t="shared" si="32"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AB93" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC93" t="str">
+        <f t="shared" si="34"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AD93">
+        <f t="shared" si="35"/>
+        <v>5175.3500000000004</v>
+      </c>
+      <c r="AE93">
+        <f t="shared" si="36"/>
+        <v>5148</v>
+      </c>
+      <c r="AF93">
+        <f t="shared" si="37"/>
+        <v>5136</v>
+      </c>
+      <c r="AG93">
+        <f t="shared" si="38"/>
+        <v>5123.9500000000007</v>
+      </c>
     </row>
     <row r="94" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B94" s="1"/>
+      <c r="A94" t="s">
+        <v>5</v>
+      </c>
+      <c r="B94" s="1">
+        <v>42990</v>
+      </c>
+      <c r="C94">
+        <v>5144</v>
+      </c>
+      <c r="D94">
+        <v>5144</v>
+      </c>
+      <c r="E94">
+        <v>5091.05</v>
+      </c>
+      <c r="F94">
+        <v>5105</v>
+      </c>
+      <c r="G94">
+        <f>_xll.TA_TYPPRICE(D94,E94,F94)</f>
+        <v>5113.3499999999995</v>
+      </c>
+      <c r="H94">
+        <v>5143.5712405723561</v>
+      </c>
+      <c r="I94" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J94">
+        <v>5264.4437144765006</v>
+      </c>
+      <c r="K94">
+        <v>5183.5637694689558</v>
+      </c>
+      <c r="L94" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M94" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N94">
+        <v>19.039413450623378</v>
+      </c>
+      <c r="O94" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P94" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q94">
+        <f t="shared" si="25"/>
+        <v>13.949999999999818</v>
+      </c>
+      <c r="R94">
+        <f t="shared" si="26"/>
+        <v>52.949999999999818</v>
+      </c>
+      <c r="S94">
+        <f t="shared" si="27"/>
+        <v>0.26345609065155556</v>
+      </c>
+      <c r="T94" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U94" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V94">
+        <v>5235.8296207708963</v>
+      </c>
+      <c r="W94">
+        <v>5305.2075221275281</v>
+      </c>
+      <c r="X94">
+        <f t="shared" si="30"/>
+        <v>-69.37790135663181</v>
+      </c>
+      <c r="Y94">
+        <v>-44.893155123257529</v>
+      </c>
+      <c r="Z94" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA94" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB94" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC94" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD94" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE94" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF94" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG94" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="95" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B95" s="1"/>
+      <c r="A95" t="s">
+        <v>5</v>
+      </c>
+      <c r="B95" s="1">
+        <v>42991</v>
+      </c>
+      <c r="C95">
+        <v>5082.3</v>
+      </c>
+      <c r="D95">
+        <v>5160</v>
+      </c>
+      <c r="E95">
+        <v>5082.3</v>
+      </c>
+      <c r="F95">
+        <v>5107</v>
+      </c>
+      <c r="G95">
+        <f>_xll.TA_TYPPRICE(D95,E95,F95)</f>
+        <v>5116.4333333333334</v>
+      </c>
+      <c r="H95">
+        <v>5130.0022869528448</v>
+      </c>
+      <c r="I95" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J95">
+        <v>5241.234000148389</v>
+      </c>
+      <c r="K95">
+        <v>5161.0607095869655</v>
+      </c>
+      <c r="L95" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M95" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N95">
+        <v>19.984831207046025</v>
+      </c>
+      <c r="O95" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P95" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q95">
+        <f t="shared" si="25"/>
+        <v>24.699999999999818</v>
+      </c>
+      <c r="R95">
+        <f t="shared" si="26"/>
+        <v>77.699999999999818</v>
+      </c>
+      <c r="S95">
+        <f t="shared" si="27"/>
+        <v>0.31788931788931629</v>
+      </c>
+      <c r="T95" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U95" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V95">
+        <v>5216.0096791138358</v>
+      </c>
+      <c r="W95">
+        <v>5290.5254834514153</v>
+      </c>
+      <c r="X95">
+        <f t="shared" si="30"/>
+        <v>-74.515804337579539</v>
+      </c>
+      <c r="Y95">
+        <v>-50.817684966121931</v>
+      </c>
+      <c r="Z95" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA95" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB95" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC95" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD95" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE95" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF95" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG95" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="96" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B96" s="1"/>
-    </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B97" s="1"/>
-    </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B98" s="1"/>
-    </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B99" s="1"/>
-    </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B100" s="1"/>
-    </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B101" s="1"/>
-    </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B102" s="1"/>
-    </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B103" s="1"/>
-    </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B104" s="1"/>
-    </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>5</v>
+      </c>
+      <c r="B96" s="1">
+        <v>42992</v>
+      </c>
+      <c r="C96">
+        <v>5100</v>
+      </c>
+      <c r="D96">
+        <v>5143</v>
+      </c>
+      <c r="E96">
+        <v>5100</v>
+      </c>
+      <c r="F96">
+        <v>5100</v>
+      </c>
+      <c r="G96">
+        <f>_xll.TA_TYPPRICE(D96,E96,F96)</f>
+        <v>5114.333333333333</v>
+      </c>
+      <c r="H96">
+        <v>5122.1678101430889</v>
+      </c>
+      <c r="I96" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J96">
+        <v>5219.4042223376355</v>
+      </c>
+      <c r="K96">
+        <v>5147.4916630120842</v>
+      </c>
+      <c r="L96" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M96" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N96">
+        <v>19.013451285086685</v>
+      </c>
+      <c r="O96" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P96" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q96">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="R96">
+        <f t="shared" si="26"/>
+        <v>43</v>
+      </c>
+      <c r="S96">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="T96" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U96" t="str">
+        <f t="shared" si="29"/>
+        <v>DOWN</v>
+      </c>
+      <c r="V96">
+        <v>5198.1620361732457</v>
+      </c>
+      <c r="W96">
+        <v>5276.4124846772365</v>
+      </c>
+      <c r="X96">
+        <f t="shared" si="30"/>
+        <v>-78.25044850399081</v>
+      </c>
+      <c r="Y96">
+        <v>-56.30423767369571</v>
+      </c>
+      <c r="Z96" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA96" t="str">
+        <f t="shared" si="32"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AB96" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC96" t="str">
+        <f t="shared" si="34"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AD96">
+        <f t="shared" si="35"/>
+        <v>5138.1000000000004</v>
+      </c>
+      <c r="AE96">
+        <f t="shared" si="36"/>
+        <v>5126.55</v>
+      </c>
+      <c r="AF96">
+        <f t="shared" si="37"/>
+        <v>5121.5</v>
+      </c>
+      <c r="AG96">
+        <f t="shared" si="38"/>
+        <v>5116.4500000000007</v>
+      </c>
+    </row>
+    <row r="97" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>5</v>
+      </c>
+      <c r="B97" s="1">
+        <v>42993</v>
+      </c>
+      <c r="C97">
+        <v>5101.05</v>
+      </c>
+      <c r="D97">
+        <v>5119.55</v>
+      </c>
+      <c r="E97">
+        <v>5062</v>
+      </c>
+      <c r="F97">
+        <v>5090</v>
+      </c>
+      <c r="G97">
+        <f>_xll.TA_TYPPRICE(D97,E97,F97)</f>
+        <v>5090.5166666666664</v>
+      </c>
+      <c r="H97">
+        <v>5106.3422384048772</v>
+      </c>
+      <c r="I97" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J97">
+        <v>5197.2143951514945</v>
+      </c>
+      <c r="K97">
+        <v>5128.4935156760657</v>
+      </c>
+      <c r="L97" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M97" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N97">
+        <v>17.494955942800029</v>
+      </c>
+      <c r="O97" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P97" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q97">
+        <f t="shared" si="25"/>
+        <v>28</v>
+      </c>
+      <c r="R97">
+        <f t="shared" si="26"/>
+        <v>57.550000000000182</v>
+      </c>
+      <c r="S97">
+        <f t="shared" si="27"/>
+        <v>0.48653344917462921</v>
+      </c>
+      <c r="T97" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U97" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V97">
+        <v>5181.5217229158234</v>
+      </c>
+      <c r="W97">
+        <v>5262.6041524789225</v>
+      </c>
+      <c r="X97">
+        <f t="shared" si="30"/>
+        <v>-81.08242956309914</v>
+      </c>
+      <c r="Y97">
+        <v>-61.259876051576398</v>
+      </c>
+      <c r="Z97" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA97" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB97" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC97" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD97" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE97" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF97" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG97" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="98" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>5</v>
+      </c>
+      <c r="B98" s="1">
+        <v>42996</v>
+      </c>
+      <c r="C98">
+        <v>5100</v>
+      </c>
+      <c r="D98">
+        <v>5170</v>
+      </c>
+      <c r="E98">
+        <v>5040</v>
+      </c>
+      <c r="F98">
+        <v>5064</v>
+      </c>
+      <c r="G98">
+        <f>_xll.TA_TYPPRICE(D98,E98,F98)</f>
+        <v>5091.333333333333</v>
+      </c>
+      <c r="H98">
+        <v>5098.8377858691056</v>
+      </c>
+      <c r="I98" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J98">
+        <v>5191.1667517844953</v>
+      </c>
+      <c r="K98">
+        <v>5108.8282899702735</v>
+      </c>
+      <c r="L98" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M98" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N98">
+        <v>13.889748553333698</v>
+      </c>
+      <c r="O98" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P98" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q98">
+        <f t="shared" si="25"/>
+        <v>24</v>
+      </c>
+      <c r="R98">
+        <f t="shared" si="26"/>
+        <v>130</v>
+      </c>
+      <c r="S98">
+        <f t="shared" si="27"/>
+        <v>0.18461538461538463</v>
+      </c>
+      <c r="T98" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U98" t="str">
+        <f t="shared" si="29"/>
+        <v>DOWN</v>
+      </c>
+      <c r="V98">
+        <v>5163.4414578518508</v>
+      </c>
+      <c r="W98">
+        <v>5247.89273377678</v>
+      </c>
+      <c r="X98">
+        <f t="shared" si="30"/>
+        <v>-84.451275924929178</v>
+      </c>
+      <c r="Y98">
+        <v>-65.898156026246951</v>
+      </c>
+      <c r="Z98" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA98" t="str">
+        <f t="shared" si="32"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AB98" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC98" t="str">
+        <f t="shared" si="34"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AD98">
+        <f t="shared" si="35"/>
+        <v>5155.2000000000007</v>
+      </c>
+      <c r="AE98">
+        <f t="shared" si="36"/>
+        <v>5120.3500000000004</v>
+      </c>
+      <c r="AF98">
+        <f t="shared" si="37"/>
+        <v>5105</v>
+      </c>
+      <c r="AG98">
+        <f t="shared" si="38"/>
+        <v>5089.6500000000005</v>
+      </c>
+    </row>
+    <row r="99" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>5</v>
+      </c>
+      <c r="B99" s="1">
+        <v>42997</v>
+      </c>
+      <c r="C99">
+        <v>5045</v>
+      </c>
+      <c r="D99">
+        <v>5094</v>
+      </c>
+      <c r="E99">
+        <v>5005.1000000000004</v>
+      </c>
+      <c r="F99">
+        <v>5020</v>
+      </c>
+      <c r="G99">
+        <f>_xll.TA_TYPPRICE(D99,E99,F99)</f>
+        <v>5039.7</v>
+      </c>
+      <c r="H99">
+        <v>5069.2688929345532</v>
+      </c>
+      <c r="I99" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J99">
+        <v>5169.5741402768299</v>
+      </c>
+      <c r="K99">
+        <v>5085.7775588657687</v>
+      </c>
+      <c r="L99" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M99" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N99">
+        <v>9.673066102072605</v>
+      </c>
+      <c r="O99" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P99" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q99">
+        <f t="shared" si="25"/>
+        <v>14.899999999999636</v>
+      </c>
+      <c r="R99">
+        <f t="shared" si="26"/>
+        <v>88.899999999999636</v>
+      </c>
+      <c r="S99">
+        <f t="shared" si="27"/>
+        <v>0.16760404949380986</v>
+      </c>
+      <c r="T99" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U99" t="str">
+        <f t="shared" si="29"/>
+        <v>DOWN</v>
+      </c>
+      <c r="V99">
+        <v>5141.3735412592587</v>
+      </c>
+      <c r="W99">
+        <v>5231.0117905340558</v>
+      </c>
+      <c r="X99">
+        <f t="shared" si="30"/>
+        <v>-89.63824927479709</v>
+      </c>
+      <c r="Y99">
+        <v>-70.646174675956985</v>
+      </c>
+      <c r="Z99" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA99" t="str">
+        <f t="shared" si="32"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AB99" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC99" t="str">
+        <f t="shared" si="34"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AD99">
+        <f t="shared" si="35"/>
+        <v>5083.8500000000004</v>
+      </c>
+      <c r="AE99">
+        <f t="shared" si="36"/>
+        <v>5060.05</v>
+      </c>
+      <c r="AF99">
+        <f t="shared" si="37"/>
+        <v>5049.55</v>
+      </c>
+      <c r="AG99">
+        <f t="shared" si="38"/>
+        <v>5039.05</v>
+      </c>
+    </row>
+    <row r="100" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>5</v>
+      </c>
+      <c r="B100" s="1">
+        <v>42998</v>
+      </c>
+      <c r="C100">
+        <v>5020</v>
+      </c>
+      <c r="D100">
+        <v>5087.95</v>
+      </c>
+      <c r="E100">
+        <v>5000</v>
+      </c>
+      <c r="F100">
+        <v>5030</v>
+      </c>
+      <c r="G100">
+        <f>_xll.TA_TYPPRICE(D100,E100,F100)</f>
+        <v>5039.3166666666666</v>
+      </c>
+      <c r="H100">
+        <v>5054.2927798006094</v>
+      </c>
+      <c r="I100" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J100">
+        <v>5151.4354424375342</v>
+      </c>
+      <c r="K100">
+        <v>5066.7158791178199</v>
+      </c>
+      <c r="L100" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M100" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N100">
+        <v>16.844786237496152</v>
+      </c>
+      <c r="O100" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P100" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q100">
+        <f t="shared" si="25"/>
+        <v>30</v>
+      </c>
+      <c r="R100">
+        <f t="shared" si="26"/>
+        <v>87.949999999999818</v>
+      </c>
+      <c r="S100">
+        <f t="shared" si="27"/>
+        <v>0.34110289937464539</v>
+      </c>
+      <c r="T100" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U100" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V100">
+        <v>5124.2391502962955</v>
+      </c>
+      <c r="W100">
+        <v>5216.1220282722743</v>
+      </c>
+      <c r="X100">
+        <f t="shared" si="30"/>
+        <v>-91.882877975978772</v>
+      </c>
+      <c r="Y100">
+        <v>-74.893515335961339</v>
+      </c>
+      <c r="Z100" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA100" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB100" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC100" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD100" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE100" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF100" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG100" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="101" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>5</v>
+      </c>
+      <c r="B101" s="1">
+        <v>42999</v>
+      </c>
+      <c r="C101">
+        <v>5050</v>
+      </c>
+      <c r="D101">
+        <v>5050.05</v>
+      </c>
+      <c r="E101">
+        <v>4985.55</v>
+      </c>
+      <c r="F101">
+        <v>5044</v>
+      </c>
+      <c r="G101">
+        <f>_xll.TA_TYPPRICE(D101,E101,F101)</f>
+        <v>5026.5333333333338</v>
+      </c>
+      <c r="H101">
+        <v>5040.4130565669711</v>
+      </c>
+      <c r="I101" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J101">
+        <v>5128.9053441180822</v>
+      </c>
+      <c r="K101">
+        <v>5048.6790170916374</v>
+      </c>
+      <c r="L101" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M101" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N101">
+        <v>26.989287496847179</v>
+      </c>
+      <c r="O101" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P101" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q101">
+        <f t="shared" si="25"/>
+        <v>58.449999999999818</v>
+      </c>
+      <c r="R101">
+        <f t="shared" si="26"/>
+        <v>64.5</v>
+      </c>
+      <c r="S101">
+        <f t="shared" si="27"/>
+        <v>0.90620155038759409</v>
+      </c>
+      <c r="T101" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U101" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V101">
+        <v>5111.8946656353273</v>
+      </c>
+      <c r="W101">
+        <v>5203.3722484002537</v>
+      </c>
+      <c r="X101">
+        <f t="shared" si="30"/>
+        <v>-91.47758276492641</v>
+      </c>
+      <c r="Y101">
+        <v>-78.210328821754359</v>
+      </c>
+      <c r="Z101" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA101" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB101" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC101" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD101" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE101" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF101" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG101" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="102" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>5</v>
+      </c>
+      <c r="B102" s="1">
+        <v>43000</v>
+      </c>
+      <c r="C102">
+        <v>5030.1000000000004</v>
+      </c>
+      <c r="D102">
+        <v>5030.1000000000004</v>
+      </c>
+      <c r="E102">
+        <v>4970</v>
+      </c>
+      <c r="F102">
+        <v>4985</v>
+      </c>
+      <c r="G102">
+        <f>_xll.TA_TYPPRICE(D102,E102,F102)</f>
+        <v>4995.0333333333338</v>
+      </c>
+      <c r="H102">
+        <v>5017.7231949501529</v>
+      </c>
+      <c r="I102" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J102">
+        <v>5106.9486009807306</v>
+      </c>
+      <c r="K102">
+        <v>5031.1947910712734</v>
+      </c>
+      <c r="L102" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M102" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N102">
+        <v>16.430323345610972</v>
+      </c>
+      <c r="O102" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P102" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q102">
+        <f t="shared" si="25"/>
+        <v>15</v>
+      </c>
+      <c r="R102">
+        <f t="shared" si="26"/>
+        <v>60.100000000000364</v>
+      </c>
+      <c r="S102">
+        <f t="shared" si="27"/>
+        <v>0.24958402662229467</v>
+      </c>
+      <c r="T102" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U102" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V102">
+        <v>5092.3724093837382</v>
+      </c>
+      <c r="W102">
+        <v>5187.1965262965314</v>
+      </c>
+      <c r="X102">
+        <f t="shared" si="30"/>
+        <v>-94.824116912793215</v>
+      </c>
+      <c r="Y102">
+        <v>-81.533086439962133</v>
+      </c>
+      <c r="Z102" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA102" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB102" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC102" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD102" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE102" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF102" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG102" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="103" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>5</v>
+      </c>
+      <c r="B103" s="1">
+        <v>43003</v>
+      </c>
+      <c r="C103">
+        <v>4961</v>
+      </c>
+      <c r="D103">
+        <v>4995</v>
+      </c>
+      <c r="E103">
+        <v>4913.05</v>
+      </c>
+      <c r="F103">
+        <v>4950</v>
+      </c>
+      <c r="G103">
+        <f>_xll.TA_TYPPRICE(D103,E103,F103)</f>
+        <v>4952.6833333333334</v>
+      </c>
+      <c r="H103">
+        <v>4985.2032641417427</v>
+      </c>
+      <c r="I103" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J103">
+        <v>5082.0711340961234</v>
+      </c>
+      <c r="K103">
+        <v>5004.9403930554345</v>
+      </c>
+      <c r="L103" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M103" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N103">
+        <v>12.735643343711637</v>
+      </c>
+      <c r="O103" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P103" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q103">
+        <f t="shared" si="25"/>
+        <v>36.949999999999818</v>
+      </c>
+      <c r="R103">
+        <f t="shared" si="26"/>
+        <v>81.949999999999818</v>
+      </c>
+      <c r="S103">
+        <f t="shared" si="27"/>
+        <v>0.45088468578401342</v>
+      </c>
+      <c r="T103" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U103" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V103">
+        <v>5070.4689617862396</v>
+      </c>
+      <c r="W103">
+        <v>5169.6264132375291</v>
+      </c>
+      <c r="X103">
+        <f t="shared" si="30"/>
+        <v>-99.157451451289489</v>
+      </c>
+      <c r="Y103">
+        <v>-85.057959442227599</v>
+      </c>
+      <c r="Z103" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA103" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB103" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC103" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD103" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE103" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF103" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG103" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="104" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>5</v>
+      </c>
+      <c r="B104" s="1">
+        <v>43004</v>
+      </c>
+      <c r="C104">
+        <v>4929.2</v>
+      </c>
+      <c r="D104">
+        <v>4963.95</v>
+      </c>
+      <c r="E104">
+        <v>4915</v>
+      </c>
+      <c r="F104">
+        <v>4925</v>
+      </c>
+      <c r="G104">
+        <f>_xll.TA_TYPPRICE(D104,E104,F104)</f>
+        <v>4934.6500000000005</v>
+      </c>
+      <c r="H104">
+        <v>4959.9266320708721</v>
+      </c>
+      <c r="I104" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J104">
+        <v>5055.8219931858739</v>
+      </c>
+      <c r="K104">
+        <v>4984.9536390431158</v>
+      </c>
+      <c r="L104" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M104" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N104">
+        <v>10.606173786478564</v>
+      </c>
+      <c r="O104" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P104" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q104">
+        <f t="shared" si="25"/>
+        <v>10</v>
+      </c>
+      <c r="R104">
+        <f t="shared" si="26"/>
+        <v>48.949999999999818</v>
+      </c>
+      <c r="S104">
+        <f t="shared" si="27"/>
+        <v>0.20429009193054212</v>
+      </c>
+      <c r="T104" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U104" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V104">
+        <v>5048.0891215114334</v>
+      </c>
+      <c r="W104">
+        <v>5151.5059381828969</v>
+      </c>
+      <c r="X104">
+        <f t="shared" si="30"/>
+        <v>-103.41681667146349</v>
+      </c>
+      <c r="Y104">
+        <v>-88.729730888074783</v>
+      </c>
+      <c r="Z104" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA104" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB104" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC104" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD104" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE104" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF104" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG104" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="105" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B105" s="1"/>
     </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B106" s="1"/>
     </row>
-    <row r="107" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B107" s="1"/>
     </row>
-    <row r="108" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B108" s="1"/>
     </row>
-    <row r="109" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B109" s="1"/>
     </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B110" s="1"/>
     </row>
-    <row r="111" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B111" s="1"/>
     </row>
-    <row r="112" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B112" s="1"/>
     </row>
     <row r="113" spans="2:2" x14ac:dyDescent="0.25">
